--- a/biology/Botanique/Pucciniomycotina/Pucciniomycotina.xlsx
+++ b/biology/Botanique/Pucciniomycotina/Pucciniomycotina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pucciniomycotina sont une sous-division de champignons (Fungi) basidiomycètes. Ce sont de proches parents des Ustilaginomycotina qui regroupent les champignons du charbon et des Agaricomycotina, les champignons à lames et à tubes.
-En 2014, plus de 8 400 espèces de Pucciniomycotina ont été décrites, soit plus de 8 % des 100 000 espèces du règne fongique[1], ce nombre augmentant chaque année[2].
+En 2014, plus de 8 400 espèces de Pucciniomycotina ont été décrites, soit plus de 8 % des 100 000 espèces du règne fongique, ce nombre augmentant chaque année.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces appartenant aux Pucciniomycotina sont pour la plupart phytopathogènes agents de la maladie cryptogamique de la rouille, quelques-unes sont entomopathogènes ou mycoparasites, mais quelques espèces sont aussi des membres asymptomatiques de la phyllosphère et d'autres forment des associations mycorhiziennes avec des Orchidées. Enfin, une petite partie est saprobionte[2]. 
-Leurs cycles de vie sont très variés, allant de simples levures aux cycles de vie élaborés en cinq étapes des champignons de la rouille, souvent considérés comme les organismes les plus complexes du règne fongique. Pour accomplir leur développement complet, ces derniers présentent typiquement cinq étapes successives et une alternance d'hôtes[2].
-Les espèces de Pucciniomycotina se retrouvent dans le sols, des habitats d'eau douce et marins, ainsi que dans des environnements arctiques et tropicaux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces appartenant aux Pucciniomycotina sont pour la plupart phytopathogènes agents de la maladie cryptogamique de la rouille, quelques-unes sont entomopathogènes ou mycoparasites, mais quelques espèces sont aussi des membres asymptomatiques de la phyllosphère et d'autres forment des associations mycorhiziennes avec des Orchidées. Enfin, une petite partie est saprobionte. 
+Leurs cycles de vie sont très variés, allant de simples levures aux cycles de vie élaborés en cinq étapes des champignons de la rouille, souvent considérés comme les organismes les plus complexes du règne fongique. Pour accomplir leur développement complet, ces derniers présentent typiquement cinq étapes successives et une alternance d'hôtes.
+Les espèces de Pucciniomycotina se retrouvent dans le sols, des habitats d'eau douce et marins, ainsi que dans des environnements arctiques et tropicaux.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des classes selon MycoBank                                            (9 juin 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des classes selon MycoBank                                            (9 juin 2022) :
 Agaricostilbomycetes R. Bauer, Begerow, J.P. Samp., M. Weiss &amp; Oberw., 2006
 Atractiellomycetes R. Bauer, Begerow, J.P. Samp., M. Weiss &amp; Oberw., 2006
 Classiculomycetes R. Bauer, Begerow, J.P. Samp., M. Weiss &amp; Oberw., 2006
